--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il17c-Il17re.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il17c-Il17re.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.130192220651314</v>
+        <v>0.2334313333333333</v>
       </c>
       <c r="H2">
-        <v>0.130192220651314</v>
+        <v>0.700294</v>
       </c>
       <c r="I2">
-        <v>0.01626067793514731</v>
+        <v>0.02791645656725418</v>
       </c>
       <c r="J2">
-        <v>0.01626067793514731</v>
+        <v>0.02791645656725418</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.0305282367711534</v>
+        <v>0.03442933333333333</v>
       </c>
       <c r="N2">
-        <v>0.0305282367711534</v>
+        <v>0.103288</v>
       </c>
       <c r="O2">
-        <v>0.4803313945862331</v>
+        <v>0.1863913120369001</v>
       </c>
       <c r="P2">
-        <v>0.4803313945862331</v>
+        <v>0.1863913120369</v>
       </c>
       <c r="Q2">
-        <v>0.003974538937805561</v>
+        <v>0.008036885185777777</v>
       </c>
       <c r="R2">
-        <v>0.003974538937805561</v>
+        <v>0.07233196667199999</v>
       </c>
       <c r="S2">
-        <v>0.007810514109506899</v>
+        <v>0.005203384966991642</v>
       </c>
       <c r="T2">
-        <v>0.007810514109506899</v>
+        <v>0.005203384966991641</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.130192220651314</v>
+        <v>0.2334313333333333</v>
       </c>
       <c r="H3">
-        <v>0.130192220651314</v>
+        <v>0.700294</v>
       </c>
       <c r="I3">
-        <v>0.01626067793514731</v>
+        <v>0.02791645656725418</v>
       </c>
       <c r="J3">
-        <v>0.01626067793514731</v>
+        <v>0.02791645656725418</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0090602481162081</v>
+        <v>0.07702299999999999</v>
       </c>
       <c r="N3">
-        <v>0.0090602481162081</v>
+        <v>0.231069</v>
       </c>
       <c r="O3">
-        <v>0.1425539786519124</v>
+        <v>0.4169821671545045</v>
       </c>
       <c r="P3">
-        <v>0.1425539786519124</v>
+        <v>0.4169821671545044</v>
       </c>
       <c r="Q3">
-        <v>0.001179573821901017</v>
+        <v>0.01797958158733333</v>
       </c>
       <c r="R3">
-        <v>0.001179573821901017</v>
+        <v>0.161816234286</v>
       </c>
       <c r="S3">
-        <v>0.002318024335232613</v>
+        <v>0.01164066455868825</v>
       </c>
       <c r="T3">
-        <v>0.002318024335232613</v>
+        <v>0.01164066455868825</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.130192220651314</v>
+        <v>0.2334313333333333</v>
       </c>
       <c r="H4">
-        <v>0.130192220651314</v>
+        <v>0.700294</v>
       </c>
       <c r="I4">
-        <v>0.01626067793514731</v>
+        <v>0.02791645656725418</v>
       </c>
       <c r="J4">
-        <v>0.01626067793514731</v>
+        <v>0.02791645656725418</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.0239681285575103</v>
+        <v>0.02858633333333334</v>
       </c>
       <c r="N4">
-        <v>0.0239681285575103</v>
+        <v>0.085759</v>
       </c>
       <c r="O4">
-        <v>0.3771146267618547</v>
+        <v>0.1547588541647869</v>
       </c>
       <c r="P4">
-        <v>0.3771146267618547</v>
+        <v>0.1547588541647869</v>
       </c>
       <c r="Q4">
-        <v>0.003120463881758441</v>
+        <v>0.006672945905111111</v>
       </c>
       <c r="R4">
-        <v>0.003120463881758441</v>
+        <v>0.060056513146</v>
       </c>
       <c r="S4">
-        <v>0.006132139490407806</v>
+        <v>0.004320318830689298</v>
       </c>
       <c r="T4">
-        <v>0.006132139490407806</v>
+        <v>0.004320318830689297</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.423088003359636</v>
+        <v>0.2334313333333333</v>
       </c>
       <c r="H5">
-        <v>0.423088003359636</v>
+        <v>0.700294</v>
       </c>
       <c r="I5">
-        <v>0.05284261783414115</v>
+        <v>0.02791645656725418</v>
       </c>
       <c r="J5">
-        <v>0.05284261783414115</v>
+        <v>0.02791645656725418</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.0305282367711534</v>
+        <v>0.003532666666666667</v>
       </c>
       <c r="N5">
-        <v>0.0305282367711534</v>
+        <v>0.010598</v>
       </c>
       <c r="O5">
-        <v>0.4803313945862331</v>
+        <v>0.01912492375655514</v>
       </c>
       <c r="P5">
-        <v>0.4803313945862331</v>
+        <v>0.01912492375655513</v>
       </c>
       <c r="Q5">
-        <v>0.01291613074159751</v>
+        <v>0.0008246350902222222</v>
       </c>
       <c r="R5">
-        <v>0.01291613074159751</v>
+        <v>0.007421715812</v>
       </c>
       <c r="S5">
-        <v>0.02538196831786037</v>
+        <v>0.0005339001034019191</v>
       </c>
       <c r="T5">
-        <v>0.02538196831786037</v>
+        <v>0.000533900103401919</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,57 +785,57 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.423088003359636</v>
+        <v>0.2334313333333333</v>
       </c>
       <c r="H6">
-        <v>0.423088003359636</v>
+        <v>0.700294</v>
       </c>
       <c r="I6">
-        <v>0.05284261783414115</v>
+        <v>0.02791645656725418</v>
       </c>
       <c r="J6">
-        <v>0.05284261783414115</v>
+        <v>0.02791645656725418</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0090602481162081</v>
+        <v>0.009117666666666668</v>
       </c>
       <c r="N6">
-        <v>0.0090602481162081</v>
+        <v>0.027353</v>
       </c>
       <c r="O6">
-        <v>0.1425539786519124</v>
+        <v>0.04936063781025219</v>
       </c>
       <c r="P6">
-        <v>0.1425539786519124</v>
+        <v>0.04936063781025218</v>
       </c>
       <c r="Q6">
-        <v>0.003833282285429388</v>
+        <v>0.002128349086888889</v>
       </c>
       <c r="R6">
-        <v>0.003833282285429388</v>
+        <v>0.019155141782</v>
       </c>
       <c r="S6">
-        <v>0.007532925414639322</v>
+        <v>0.00137797410156187</v>
       </c>
       <c r="T6">
-        <v>0.007532925414639322</v>
+        <v>0.00137797410156187</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.423088003359636</v>
+        <v>0.2334313333333333</v>
       </c>
       <c r="H7">
-        <v>0.423088003359636</v>
+        <v>0.700294</v>
       </c>
       <c r="I7">
-        <v>0.05284261783414115</v>
+        <v>0.02791645656725418</v>
       </c>
       <c r="J7">
-        <v>0.05284261783414115</v>
+        <v>0.02791645656725418</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.0239681285575103</v>
+        <v>0.03202633333333333</v>
       </c>
       <c r="N7">
-        <v>0.0239681285575103</v>
+        <v>0.096079</v>
       </c>
       <c r="O7">
-        <v>0.3771146267618547</v>
+        <v>0.1733821050770014</v>
       </c>
       <c r="P7">
-        <v>0.3771146267618547</v>
+        <v>0.1733821050770014</v>
       </c>
       <c r="Q7">
-        <v>0.01014062765566411</v>
+        <v>0.007475949691777777</v>
       </c>
       <c r="R7">
-        <v>0.01014062765566411</v>
+        <v>0.067283547226</v>
       </c>
       <c r="S7">
-        <v>0.01992772410164147</v>
+        <v>0.00484021400592121</v>
       </c>
       <c r="T7">
-        <v>0.01992772410164147</v>
+        <v>0.00484021400592121</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.478284102133961</v>
+        <v>0.4670449999999999</v>
       </c>
       <c r="H8">
-        <v>0.478284102133961</v>
+        <v>1.401135</v>
       </c>
       <c r="I8">
-        <v>0.05973647048490489</v>
+        <v>0.0558547186929485</v>
       </c>
       <c r="J8">
-        <v>0.05973647048490489</v>
+        <v>0.05585471869294851</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.0305282367711534</v>
+        <v>0.03442933333333333</v>
       </c>
       <c r="N8">
-        <v>0.0305282367711534</v>
+        <v>0.103288</v>
       </c>
       <c r="O8">
-        <v>0.4803313945862331</v>
+        <v>0.1863913120369001</v>
       </c>
       <c r="P8">
-        <v>0.4803313945862331</v>
+        <v>0.1863913120369</v>
       </c>
       <c r="Q8">
-        <v>0.01460117031382408</v>
+        <v>0.01608004798666667</v>
       </c>
       <c r="R8">
-        <v>0.01460117031382408</v>
+        <v>0.14472043188</v>
       </c>
       <c r="S8">
-        <v>0.02869330217567372</v>
+        <v>0.01041083430063064</v>
       </c>
       <c r="T8">
-        <v>0.02869330217567372</v>
+        <v>0.01041083430063064</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,184 +968,184 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.478284102133961</v>
+        <v>0.4670449999999999</v>
       </c>
       <c r="H9">
-        <v>0.478284102133961</v>
+        <v>1.401135</v>
       </c>
       <c r="I9">
-        <v>0.05973647048490489</v>
+        <v>0.0558547186929485</v>
       </c>
       <c r="J9">
-        <v>0.05973647048490489</v>
+        <v>0.05585471869294851</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0090602481162081</v>
+        <v>0.07702299999999999</v>
       </c>
       <c r="N9">
-        <v>0.0090602481162081</v>
+        <v>0.231069</v>
       </c>
       <c r="O9">
-        <v>0.1425539786519124</v>
+        <v>0.4169821671545045</v>
       </c>
       <c r="P9">
-        <v>0.1425539786519124</v>
+        <v>0.4169821671545044</v>
       </c>
       <c r="Q9">
-        <v>0.004333372635371503</v>
+        <v>0.03597320703499999</v>
       </c>
       <c r="R9">
-        <v>0.004333372635371503</v>
+        <v>0.3237588633149999</v>
       </c>
       <c r="S9">
-        <v>0.008515671538245726</v>
+        <v>0.02329042164639088</v>
       </c>
       <c r="T9">
-        <v>0.008515671538245726</v>
+        <v>0.02329042164639087</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.478284102133961</v>
+        <v>0.4670449999999999</v>
       </c>
       <c r="H10">
-        <v>0.478284102133961</v>
+        <v>1.401135</v>
       </c>
       <c r="I10">
-        <v>0.05973647048490489</v>
+        <v>0.0558547186929485</v>
       </c>
       <c r="J10">
-        <v>0.05973647048490489</v>
+        <v>0.05585471869294851</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.0239681285575103</v>
+        <v>0.02858633333333334</v>
       </c>
       <c r="N10">
-        <v>0.0239681285575103</v>
+        <v>0.085759</v>
       </c>
       <c r="O10">
-        <v>0.3771146267618547</v>
+        <v>0.1547588541647869</v>
       </c>
       <c r="P10">
-        <v>0.3771146267618547</v>
+        <v>0.1547588541647869</v>
       </c>
       <c r="Q10">
-        <v>0.01146357484696016</v>
+        <v>0.01335110405166666</v>
       </c>
       <c r="R10">
-        <v>0.01146357484696016</v>
+        <v>0.120159936465</v>
       </c>
       <c r="S10">
-        <v>0.02252749677098546</v>
+        <v>0.008644012264617217</v>
       </c>
       <c r="T10">
-        <v>0.02252749677098546</v>
+        <v>0.008644012264617213</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.9635118537745</v>
+        <v>0.4670449999999999</v>
       </c>
       <c r="H11">
-        <v>1.9635118537745</v>
+        <v>1.401135</v>
       </c>
       <c r="I11">
-        <v>0.2452376471984616</v>
+        <v>0.0558547186929485</v>
       </c>
       <c r="J11">
-        <v>0.2452376471984616</v>
+        <v>0.05585471869294851</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.0305282367711534</v>
+        <v>0.003532666666666667</v>
       </c>
       <c r="N11">
-        <v>0.0305282367711534</v>
+        <v>0.010598</v>
       </c>
       <c r="O11">
-        <v>0.4803313945862331</v>
+        <v>0.01912492375655514</v>
       </c>
       <c r="P11">
-        <v>0.4803313945862331</v>
+        <v>0.01912492375655513</v>
       </c>
       <c r="Q11">
-        <v>0.05994255477499427</v>
+        <v>0.001649914303333333</v>
       </c>
       <c r="R11">
-        <v>0.05994255477499427</v>
+        <v>0.01484922873</v>
       </c>
       <c r="S11">
-        <v>0.1177953410838837</v>
+        <v>0.001068217236446475</v>
       </c>
       <c r="T11">
-        <v>0.1177953410838837</v>
+        <v>0.001068217236446475</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.9635118537745</v>
+        <v>0.4670449999999999</v>
       </c>
       <c r="H12">
-        <v>1.9635118537745</v>
+        <v>1.401135</v>
       </c>
       <c r="I12">
-        <v>0.2452376471984616</v>
+        <v>0.0558547186929485</v>
       </c>
       <c r="J12">
-        <v>0.2452376471984616</v>
+        <v>0.05585471869294851</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0090602481162081</v>
+        <v>0.009117666666666668</v>
       </c>
       <c r="N12">
-        <v>0.0090602481162081</v>
+        <v>0.027353</v>
       </c>
       <c r="O12">
-        <v>0.1425539786519124</v>
+        <v>0.04936063781025219</v>
       </c>
       <c r="P12">
-        <v>0.1425539786519124</v>
+        <v>0.04936063781025218</v>
       </c>
       <c r="Q12">
-        <v>0.01778990457431269</v>
+        <v>0.004258360628333333</v>
       </c>
       <c r="R12">
-        <v>0.01778990457431269</v>
+        <v>0.038325245655</v>
       </c>
       <c r="S12">
-        <v>0.03495960232337472</v>
+        <v>0.002757024539396153</v>
       </c>
       <c r="T12">
-        <v>0.03495960232337472</v>
+        <v>0.002757024539396153</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.9635118537745</v>
+        <v>0.4670449999999999</v>
       </c>
       <c r="H13">
-        <v>1.9635118537745</v>
+        <v>1.401135</v>
       </c>
       <c r="I13">
-        <v>0.2452376471984616</v>
+        <v>0.0558547186929485</v>
       </c>
       <c r="J13">
-        <v>0.2452376471984616</v>
+        <v>0.05585471869294851</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.0239681285575103</v>
+        <v>0.03202633333333333</v>
       </c>
       <c r="N13">
-        <v>0.0239681285575103</v>
+        <v>0.096079</v>
       </c>
       <c r="O13">
-        <v>0.3771146267618547</v>
+        <v>0.1733821050770014</v>
       </c>
       <c r="P13">
-        <v>0.3771146267618547</v>
+        <v>0.1733821050770014</v>
       </c>
       <c r="Q13">
-        <v>0.04706170453546258</v>
+        <v>0.01495773885166666</v>
       </c>
       <c r="R13">
-        <v>0.04706170453546258</v>
+        <v>0.134619649665</v>
       </c>
       <c r="S13">
-        <v>0.09248270379120327</v>
+        <v>0.009684208705467151</v>
       </c>
       <c r="T13">
-        <v>0.09248270379120327</v>
+        <v>0.00968420870546715</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.81912466569464</v>
+        <v>0.4832656666666666</v>
       </c>
       <c r="H14">
-        <v>4.81912466569464</v>
+        <v>1.449797</v>
       </c>
       <c r="I14">
-        <v>0.6018964399421213</v>
+        <v>0.05779457625202473</v>
       </c>
       <c r="J14">
-        <v>0.6018964399421213</v>
+        <v>0.05779457625202474</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.0305282367711534</v>
+        <v>0.03442933333333333</v>
       </c>
       <c r="N14">
-        <v>0.0305282367711534</v>
+        <v>0.103288</v>
       </c>
       <c r="O14">
-        <v>0.4803313945862331</v>
+        <v>0.1863913120369001</v>
       </c>
       <c r="P14">
-        <v>0.4803313945862331</v>
+        <v>0.1863913120369</v>
       </c>
       <c r="Q14">
-        <v>0.1471193788240314</v>
+        <v>0.01663851472622222</v>
       </c>
       <c r="R14">
-        <v>0.1471193788240314</v>
+        <v>0.149746632536</v>
       </c>
       <c r="S14">
-        <v>0.289109756393888</v>
+        <v>0.01077240689623156</v>
       </c>
       <c r="T14">
-        <v>0.289109756393888</v>
+        <v>0.01077240689623155</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.81912466569464</v>
+        <v>0.4832656666666666</v>
       </c>
       <c r="H15">
-        <v>4.81912466569464</v>
+        <v>1.449797</v>
       </c>
       <c r="I15">
-        <v>0.6018964399421213</v>
+        <v>0.05779457625202473</v>
       </c>
       <c r="J15">
-        <v>0.6018964399421213</v>
+        <v>0.05779457625202474</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.0090602481162081</v>
+        <v>0.07702299999999999</v>
       </c>
       <c r="N15">
-        <v>0.0090602481162081</v>
+        <v>0.231069</v>
       </c>
       <c r="O15">
-        <v>0.1425539786519124</v>
+        <v>0.4169821671545045</v>
       </c>
       <c r="P15">
-        <v>0.1425539786519124</v>
+        <v>0.4169821671545044</v>
       </c>
       <c r="Q15">
-        <v>0.04366246517413186</v>
+        <v>0.03722257144366666</v>
       </c>
       <c r="R15">
-        <v>0.04366246517413186</v>
+        <v>0.335003142993</v>
       </c>
       <c r="S15">
-        <v>0.08580273225017122</v>
+        <v>0.02409930765534553</v>
       </c>
       <c r="T15">
-        <v>0.08580273225017122</v>
+        <v>0.02409930765534553</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.81912466569464</v>
+        <v>0.4832656666666666</v>
       </c>
       <c r="H16">
-        <v>4.81912466569464</v>
+        <v>1.449797</v>
       </c>
       <c r="I16">
-        <v>0.6018964399421213</v>
+        <v>0.05779457625202473</v>
       </c>
       <c r="J16">
-        <v>0.6018964399421213</v>
+        <v>0.05779457625202474</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.0239681285575103</v>
+        <v>0.02858633333333334</v>
       </c>
       <c r="N16">
-        <v>0.0239681285575103</v>
+        <v>0.085759</v>
       </c>
       <c r="O16">
-        <v>0.3771146267618547</v>
+        <v>0.1547588541647869</v>
       </c>
       <c r="P16">
-        <v>0.3771146267618547</v>
+        <v>0.1547588541647869</v>
       </c>
       <c r="Q16">
-        <v>0.115505399522038</v>
+        <v>0.01381479343588889</v>
       </c>
       <c r="R16">
-        <v>0.115505399522038</v>
+        <v>0.124333140923</v>
       </c>
       <c r="S16">
-        <v>0.2269839512980621</v>
+        <v>0.008944222397702753</v>
       </c>
       <c r="T16">
-        <v>0.2269839512980621</v>
+        <v>0.008944222397702753</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.192366972195356</v>
+        <v>0.4832656666666666</v>
       </c>
       <c r="H17">
-        <v>0.192366972195356</v>
+        <v>1.449797</v>
       </c>
       <c r="I17">
-        <v>0.02402614660522385</v>
+        <v>0.05779457625202473</v>
       </c>
       <c r="J17">
-        <v>0.02402614660522385</v>
+        <v>0.05779457625202474</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.0305282367711534</v>
+        <v>0.003532666666666667</v>
       </c>
       <c r="N17">
-        <v>0.0305282367711534</v>
+        <v>0.010598</v>
       </c>
       <c r="O17">
-        <v>0.4803313945862331</v>
+        <v>0.01912492375655514</v>
       </c>
       <c r="P17">
-        <v>0.4803313945862331</v>
+        <v>0.01912492375655513</v>
       </c>
       <c r="Q17">
-        <v>0.00587262447412971</v>
+        <v>0.001707216511777778</v>
       </c>
       <c r="R17">
-        <v>0.00587262447412971</v>
+        <v>0.015364948606</v>
       </c>
       <c r="S17">
-        <v>0.01154051250542046</v>
+        <v>0.001105316864362385</v>
       </c>
       <c r="T17">
-        <v>0.01154051250542046</v>
+        <v>0.001105316864362385</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,57 +1529,57 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.192366972195356</v>
+        <v>0.4832656666666666</v>
       </c>
       <c r="H18">
-        <v>0.192366972195356</v>
+        <v>1.449797</v>
       </c>
       <c r="I18">
-        <v>0.02402614660522385</v>
+        <v>0.05779457625202473</v>
       </c>
       <c r="J18">
-        <v>0.02402614660522385</v>
+        <v>0.05779457625202474</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.0090602481162081</v>
+        <v>0.009117666666666668</v>
       </c>
       <c r="N18">
-        <v>0.0090602481162081</v>
+        <v>0.027353</v>
       </c>
       <c r="O18">
-        <v>0.1425539786519124</v>
+        <v>0.04936063781025219</v>
       </c>
       <c r="P18">
-        <v>0.1425539786519124</v>
+        <v>0.04936063781025218</v>
       </c>
       <c r="Q18">
-        <v>0.00174289249745363</v>
+        <v>0.004406255260111112</v>
       </c>
       <c r="R18">
-        <v>0.00174289249745363</v>
+        <v>0.03965629734100001</v>
       </c>
       <c r="S18">
-        <v>0.003425022790248798</v>
+        <v>0.002852777145773195</v>
       </c>
       <c r="T18">
-        <v>0.003425022790248798</v>
+        <v>0.002852777145773195</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,52 +1591,1168 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.192366972195356</v>
+        <v>0.4832656666666666</v>
       </c>
       <c r="H19">
-        <v>0.192366972195356</v>
+        <v>1.449797</v>
       </c>
       <c r="I19">
-        <v>0.02402614660522385</v>
+        <v>0.05779457625202473</v>
       </c>
       <c r="J19">
-        <v>0.02402614660522385</v>
+        <v>0.05779457625202474</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.0239681285575103</v>
+        <v>0.03202633333333333</v>
       </c>
       <c r="N19">
-        <v>0.0239681285575103</v>
+        <v>0.096079</v>
       </c>
       <c r="O19">
-        <v>0.3771146267618547</v>
+        <v>0.1733821050770014</v>
       </c>
       <c r="P19">
-        <v>0.3771146267618547</v>
+        <v>0.1733821050770014</v>
       </c>
       <c r="Q19">
-        <v>0.004610676319797303</v>
+        <v>0.01547722732922222</v>
       </c>
       <c r="R19">
-        <v>0.004610676319797303</v>
+        <v>0.139295045963</v>
       </c>
       <c r="S19">
-        <v>0.009060611309554595</v>
+        <v>0.01002054529260932</v>
       </c>
       <c r="T19">
-        <v>0.009060611309554595</v>
+        <v>0.01002054529260932</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.112636</v>
+      </c>
+      <c r="H20">
+        <v>6.337908000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.2526537902784442</v>
+      </c>
+      <c r="J20">
+        <v>0.2526537902784443</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.03442933333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.103288</v>
+      </c>
+      <c r="O20">
+        <v>0.1863913120369001</v>
+      </c>
+      <c r="P20">
+        <v>0.1863913120369</v>
+      </c>
+      <c r="Q20">
+        <v>0.07273664905600001</v>
+      </c>
+      <c r="R20">
+        <v>0.6546298415040001</v>
+      </c>
+      <c r="S20">
+        <v>0.047092471461095</v>
+      </c>
+      <c r="T20">
+        <v>0.047092471461095</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.112636</v>
+      </c>
+      <c r="H21">
+        <v>6.337908000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.2526537902784442</v>
+      </c>
+      <c r="J21">
+        <v>0.2526537902784443</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.07702299999999999</v>
+      </c>
+      <c r="N21">
+        <v>0.231069</v>
+      </c>
+      <c r="O21">
+        <v>0.4169821671545045</v>
+      </c>
+      <c r="P21">
+        <v>0.4169821671545044</v>
+      </c>
+      <c r="Q21">
+        <v>0.162721562628</v>
+      </c>
+      <c r="R21">
+        <v>1.464494063652</v>
+      </c>
+      <c r="S21">
+        <v>0.1053521250101053</v>
+      </c>
+      <c r="T21">
+        <v>0.1053521250101053</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.112636</v>
+      </c>
+      <c r="H22">
+        <v>6.337908000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.2526537902784442</v>
+      </c>
+      <c r="J22">
+        <v>0.2526537902784443</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.02858633333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.085759</v>
+      </c>
+      <c r="O22">
+        <v>0.1547588541647869</v>
+      </c>
+      <c r="P22">
+        <v>0.1547588541647869</v>
+      </c>
+      <c r="Q22">
+        <v>0.06039251690800001</v>
+      </c>
+      <c r="R22">
+        <v>0.5435326521720001</v>
+      </c>
+      <c r="S22">
+        <v>0.03910041108388241</v>
+      </c>
+      <c r="T22">
+        <v>0.0391004110838824</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.112636</v>
+      </c>
+      <c r="H23">
+        <v>6.337908000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.2526537902784442</v>
+      </c>
+      <c r="J23">
+        <v>0.2526537902784443</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.003532666666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.010598</v>
+      </c>
+      <c r="O23">
+        <v>0.01912492375655514</v>
+      </c>
+      <c r="P23">
+        <v>0.01912492375655513</v>
+      </c>
+      <c r="Q23">
+        <v>0.007463238776000001</v>
+      </c>
+      <c r="R23">
+        <v>0.067169148984</v>
+      </c>
+      <c r="S23">
+        <v>0.004831984475879916</v>
+      </c>
+      <c r="T23">
+        <v>0.004831984475879916</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.112636</v>
+      </c>
+      <c r="H24">
+        <v>6.337908000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.2526537902784442</v>
+      </c>
+      <c r="J24">
+        <v>0.2526537902784443</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.009117666666666668</v>
+      </c>
+      <c r="N24">
+        <v>0.027353</v>
+      </c>
+      <c r="O24">
+        <v>0.04936063781025219</v>
+      </c>
+      <c r="P24">
+        <v>0.04936063781025218</v>
+      </c>
+      <c r="Q24">
+        <v>0.019262310836</v>
+      </c>
+      <c r="R24">
+        <v>0.173360797524</v>
+      </c>
+      <c r="S24">
+        <v>0.0124711522333217</v>
+      </c>
+      <c r="T24">
+        <v>0.0124711522333217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.112636</v>
+      </c>
+      <c r="H25">
+        <v>6.337908000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.2526537902784442</v>
+      </c>
+      <c r="J25">
+        <v>0.2526537902784443</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.03202633333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.096079</v>
+      </c>
+      <c r="O25">
+        <v>0.1733821050770014</v>
+      </c>
+      <c r="P25">
+        <v>0.1733821050770014</v>
+      </c>
+      <c r="Q25">
+        <v>0.067659984748</v>
+      </c>
+      <c r="R25">
+        <v>0.6089398627320001</v>
+      </c>
+      <c r="S25">
+        <v>0.04380564601415989</v>
+      </c>
+      <c r="T25">
+        <v>0.04380564601415989</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.835312666666667</v>
+      </c>
+      <c r="H26">
+        <v>14.505938</v>
+      </c>
+      <c r="I26">
+        <v>0.5782633981503226</v>
+      </c>
+      <c r="J26">
+        <v>0.5782633981503226</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.03442933333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.103288</v>
+      </c>
+      <c r="O26">
+        <v>0.1863913120369001</v>
+      </c>
+      <c r="P26">
+        <v>0.1863913120369</v>
+      </c>
+      <c r="Q26">
+        <v>0.1664765915715556</v>
+      </c>
+      <c r="R26">
+        <v>1.498289324144</v>
+      </c>
+      <c r="S26">
+        <v>0.107783273484155</v>
+      </c>
+      <c r="T26">
+        <v>0.1077832734841549</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>4.835312666666667</v>
+      </c>
+      <c r="H27">
+        <v>14.505938</v>
+      </c>
+      <c r="I27">
+        <v>0.5782633981503226</v>
+      </c>
+      <c r="J27">
+        <v>0.5782633981503226</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.07702299999999999</v>
+      </c>
+      <c r="N27">
+        <v>0.231069</v>
+      </c>
+      <c r="O27">
+        <v>0.4169821671545045</v>
+      </c>
+      <c r="P27">
+        <v>0.4169821671545044</v>
+      </c>
+      <c r="Q27">
+        <v>0.3724302875246667</v>
+      </c>
+      <c r="R27">
+        <v>3.351872587722</v>
+      </c>
+      <c r="S27">
+        <v>0.2411255249468496</v>
+      </c>
+      <c r="T27">
+        <v>0.2411255249468495</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>4.835312666666667</v>
+      </c>
+      <c r="H28">
+        <v>14.505938</v>
+      </c>
+      <c r="I28">
+        <v>0.5782633981503226</v>
+      </c>
+      <c r="J28">
+        <v>0.5782633981503226</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.02858633333333334</v>
+      </c>
+      <c r="N28">
+        <v>0.085759</v>
+      </c>
+      <c r="O28">
+        <v>0.1547588541647869</v>
+      </c>
+      <c r="P28">
+        <v>0.1547588541647869</v>
+      </c>
+      <c r="Q28">
+        <v>0.1382238596602222</v>
+      </c>
+      <c r="R28">
+        <v>1.244014736942</v>
+      </c>
+      <c r="S28">
+        <v>0.08949138090317989</v>
+      </c>
+      <c r="T28">
+        <v>0.08949138090317986</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>4.835312666666667</v>
+      </c>
+      <c r="H29">
+        <v>14.505938</v>
+      </c>
+      <c r="I29">
+        <v>0.5782633981503226</v>
+      </c>
+      <c r="J29">
+        <v>0.5782633981503226</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.003532666666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.010598</v>
+      </c>
+      <c r="O29">
+        <v>0.01912492375655514</v>
+      </c>
+      <c r="P29">
+        <v>0.01912492375655513</v>
+      </c>
+      <c r="Q29">
+        <v>0.01708154788044445</v>
+      </c>
+      <c r="R29">
+        <v>0.153733930924</v>
+      </c>
+      <c r="S29">
+        <v>0.01105924340083141</v>
+      </c>
+      <c r="T29">
+        <v>0.0110592434008314</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>4.835312666666667</v>
+      </c>
+      <c r="H30">
+        <v>14.505938</v>
+      </c>
+      <c r="I30">
+        <v>0.5782633981503226</v>
+      </c>
+      <c r="J30">
+        <v>0.5782633981503226</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.009117666666666668</v>
+      </c>
+      <c r="N30">
+        <v>0.027353</v>
+      </c>
+      <c r="O30">
+        <v>0.04936063781025219</v>
+      </c>
+      <c r="P30">
+        <v>0.04936063781025218</v>
+      </c>
+      <c r="Q30">
+        <v>0.04408676912377778</v>
+      </c>
+      <c r="R30">
+        <v>0.3967809221140001</v>
+      </c>
+      <c r="S30">
+        <v>0.02854345015502373</v>
+      </c>
+      <c r="T30">
+        <v>0.02854345015502372</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>4.835312666666667</v>
+      </c>
+      <c r="H31">
+        <v>14.505938</v>
+      </c>
+      <c r="I31">
+        <v>0.5782633981503226</v>
+      </c>
+      <c r="J31">
+        <v>0.5782633981503226</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.03202633333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.096079</v>
+      </c>
+      <c r="O31">
+        <v>0.1733821050770014</v>
+      </c>
+      <c r="P31">
+        <v>0.1733821050770014</v>
+      </c>
+      <c r="Q31">
+        <v>0.1548573352335555</v>
+      </c>
+      <c r="R31">
+        <v>1.393716017102</v>
+      </c>
+      <c r="S31">
+        <v>0.1002605252602831</v>
+      </c>
+      <c r="T31">
+        <v>0.1002605252602831</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.2300916666666667</v>
+      </c>
+      <c r="H32">
+        <v>0.6902750000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.02751706005900576</v>
+      </c>
+      <c r="J32">
+        <v>0.02751706005900576</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M32">
+        <v>0.03442933333333333</v>
+      </c>
+      <c r="N32">
+        <v>0.103288</v>
+      </c>
+      <c r="O32">
+        <v>0.1863913120369001</v>
+      </c>
+      <c r="P32">
+        <v>0.1863913120369</v>
+      </c>
+      <c r="Q32">
+        <v>0.00792190268888889</v>
+      </c>
+      <c r="R32">
+        <v>0.07129712420000001</v>
+      </c>
+      <c r="S32">
+        <v>0.005128940927796263</v>
+      </c>
+      <c r="T32">
+        <v>0.005128940927796262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.2300916666666667</v>
+      </c>
+      <c r="H33">
+        <v>0.6902750000000001</v>
+      </c>
+      <c r="I33">
+        <v>0.02751706005900576</v>
+      </c>
+      <c r="J33">
+        <v>0.02751706005900576</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.07702299999999999</v>
+      </c>
+      <c r="N33">
+        <v>0.231069</v>
+      </c>
+      <c r="O33">
+        <v>0.4169821671545045</v>
+      </c>
+      <c r="P33">
+        <v>0.4169821671545044</v>
+      </c>
+      <c r="Q33">
+        <v>0.01772235044166667</v>
+      </c>
+      <c r="R33">
+        <v>0.159501153975</v>
+      </c>
+      <c r="S33">
+        <v>0.01147412333712488</v>
+      </c>
+      <c r="T33">
+        <v>0.01147412333712488</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.2300916666666667</v>
+      </c>
+      <c r="H34">
+        <v>0.6902750000000001</v>
+      </c>
+      <c r="I34">
+        <v>0.02751706005900576</v>
+      </c>
+      <c r="J34">
+        <v>0.02751706005900576</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.02858633333333334</v>
+      </c>
+      <c r="N34">
+        <v>0.085759</v>
+      </c>
+      <c r="O34">
+        <v>0.1547588541647869</v>
+      </c>
+      <c r="P34">
+        <v>0.1547588541647869</v>
+      </c>
+      <c r="Q34">
+        <v>0.006577477080555557</v>
+      </c>
+      <c r="R34">
+        <v>0.05919729372500001</v>
+      </c>
+      <c r="S34">
+        <v>0.004258508684715356</v>
+      </c>
+      <c r="T34">
+        <v>0.004258508684715355</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.2300916666666667</v>
+      </c>
+      <c r="H35">
+        <v>0.6902750000000001</v>
+      </c>
+      <c r="I35">
+        <v>0.02751706005900576</v>
+      </c>
+      <c r="J35">
+        <v>0.02751706005900576</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.003532666666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.010598</v>
+      </c>
+      <c r="O35">
+        <v>0.01912492375655514</v>
+      </c>
+      <c r="P35">
+        <v>0.01912492375655513</v>
+      </c>
+      <c r="Q35">
+        <v>0.0008128371611111112</v>
+      </c>
+      <c r="R35">
+        <v>0.007315534450000001</v>
+      </c>
+      <c r="S35">
+        <v>0.0005262616756330338</v>
+      </c>
+      <c r="T35">
+        <v>0.0005262616756330337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.2300916666666667</v>
+      </c>
+      <c r="H36">
+        <v>0.6902750000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.02751706005900576</v>
+      </c>
+      <c r="J36">
+        <v>0.02751706005900576</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.009117666666666668</v>
+      </c>
+      <c r="N36">
+        <v>0.027353</v>
+      </c>
+      <c r="O36">
+        <v>0.04936063781025219</v>
+      </c>
+      <c r="P36">
+        <v>0.04936063781025218</v>
+      </c>
+      <c r="Q36">
+        <v>0.002097899119444445</v>
+      </c>
+      <c r="R36">
+        <v>0.018881092075</v>
+      </c>
+      <c r="S36">
+        <v>0.00135825963517554</v>
+      </c>
+      <c r="T36">
+        <v>0.00135825963517554</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.2300916666666667</v>
+      </c>
+      <c r="H37">
+        <v>0.6902750000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.02751706005900576</v>
+      </c>
+      <c r="J37">
+        <v>0.02751706005900576</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.03202633333333333</v>
+      </c>
+      <c r="N37">
+        <v>0.096079</v>
+      </c>
+      <c r="O37">
+        <v>0.1733821050770014</v>
+      </c>
+      <c r="P37">
+        <v>0.1733821050770014</v>
+      </c>
+      <c r="Q37">
+        <v>0.007368992413888889</v>
+      </c>
+      <c r="R37">
+        <v>0.066320931725</v>
+      </c>
+      <c r="S37">
+        <v>0.004770965798560695</v>
+      </c>
+      <c r="T37">
+        <v>0.004770965798560694</v>
       </c>
     </row>
   </sheetData>
